--- a/results/excel/0721_n50.xlsx
+++ b/results/excel/0721_n50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0190\Dropbox\USC\publication\gcn\smuggler_networks\results\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B7DEA-20AB-4FA6-AEC2-16D22D445F6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620AFC3F-194E-4C45-8297-E5088D09126E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,7 +762,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>DF</c:v>
+            <c:v>fast-DF</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1117,7 +1117,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>2S</c:v>
+            <c:v>fast-2S</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1882,7 +1882,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'two-stage'!$H$1:$BE$1</c15:sqref>
@@ -2047,7 +2047,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'two-stage'!$H$4:$BE$4</c15:sqref>
@@ -2211,7 +2211,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-462A-4C9E-8790-F3B3C40B4C94}"/>
                   </c:ext>
@@ -2468,15 +2468,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="l"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57264272453748155"/>
-          <c:y val="5.7953606001678939E-2"/>
-          <c:w val="0.38833288521861592"/>
-          <c:h val="0.48054406154696261"/>
+          <c:x val="0.63739837398373989"/>
+          <c:y val="9.1064851711349856E-2"/>
+          <c:w val="0.29956135970808528"/>
+          <c:h val="0.29965124804743537"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2578,7 +2578,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>DF</c:v>
+            <c:v>fast-DF</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2933,7 +2933,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2S</c:v>
+            <c:v>fast-2S</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3547,9 +3547,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67257182283108918"/>
+          <c:x val="0.58153251408090123"/>
           <c:y val="0.11521949069343432"/>
-          <c:w val="0.24719663466724193"/>
+          <c:w val="0.33823604710701483"/>
           <c:h val="0.234954797317002"/>
         </c:manualLayout>
       </c:layout>
@@ -3652,7 +3652,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>DF</c:v>
+            <c:v>fast-DF</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4007,7 +4007,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2S</c:v>
+            <c:v>fast-2S</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4621,9 +4621,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7209316506669543"/>
+          <c:x val="0.6249846297168532"/>
           <c:y val="0.44645291338582666"/>
-          <c:w val="0.20701398626541545"/>
+          <c:w val="0.30296104597121426"/>
           <c:h val="0.25810294546515017"/>
         </c:manualLayout>
       </c:layout>
@@ -4726,7 +4726,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>DF</c:v>
+            <c:v>fast-DF</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5081,7 +5081,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2S</c:v>
+            <c:v>fast-2S</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5695,9 +5695,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6990138424477762"/>
-          <c:y val="0.54245297462817144"/>
-          <c:w val="0.22527882644806385"/>
+          <c:x val="0.63723707117255501"/>
+          <c:y val="0.49929960924226979"/>
+          <c:w val="0.28705555555555556"/>
           <c:h val="0.26273257509477982"/>
         </c:manualLayout>
       </c:layout>
@@ -13203,7 +13203,7 @@
   <dimension ref="A1:BE2310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
